--- a/results/I3_N5_M3_T30_C150_DepCentral_s4_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepCentral_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>855.0155370035013</v>
+        <v>1589.136186453359</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.73074255039767</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.702102688271697</v>
+        <v>7.949791707393387</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.246897141370778</v>
+        <v>4.350287346831242</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>783.1600000000045</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.58000000000001</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22.46902814888773</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.61595173195236</v>
+        <v>21.61595173195241</v>
       </c>
     </row>
     <row r="5">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>12.46902814888773</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.28505371695348</v>
+        <v>27.94979170739339</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.94979170739339</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1079,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1118,10 +1118,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1132,10 +1132,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1146,12 +1146,96 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>167.89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1265,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>169.33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1276,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>167.84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1287,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>167.19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1298,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>158.505</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1309,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>142.985</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13">
@@ -1320,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>153.285</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1331,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>157.295</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
@@ -1342,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>166.685</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16">
@@ -1353,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.335</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
@@ -1364,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>198.9800000000008</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
@@ -1375,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>211.6850000000007</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1386,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>214.3</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20">
@@ -1397,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>220.545</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21">
@@ -1408,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>215.3150000000007</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22">
@@ -1419,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>62.47500000000007</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
@@ -1430,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>70.31500000000008</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
@@ -1441,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>62.66000000000007</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25">
@@ -1452,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>73.21000000000006</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
@@ -1463,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.06500000000007</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
@@ -1474,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1485,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1496,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1507,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1518,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1529,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>167.89</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
@@ -1540,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>169.33</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1551,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>167.84</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
@@ -1562,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>167.19</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
@@ -1573,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>158.505</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
@@ -1584,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>198.9800000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1595,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>211.6850000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1606,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>214.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1617,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>220.545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1628,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>215.3150000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1730,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>17.89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -1741,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19.33</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
@@ -1752,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>17.84</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -1763,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17.19</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
@@ -1774,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.505000000000001</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
@@ -1785,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>48.98000000000076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1796,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>61.68500000000074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1807,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>64.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1818,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>70.54500000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1829,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>65.31500000000074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1931,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1942,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1953,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1964,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1975,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2151,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2162,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2173,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2184,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2195,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2209,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2236,7 +2320,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2247,7 +2331,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2258,7 +2342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2269,7 +2353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2280,7 +2364,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2291,10 +2375,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2302,10 +2386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2313,10 +2397,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2324,10 +2408,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2338,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2346,10 +2430,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2357,10 +2441,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2368,10 +2452,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2379,12 +2463,23 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
